--- a/analysis/releases/2024-02-06_diff.xlsx
+++ b/analysis/releases/2024-02-06_diff.xlsx
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>10833</v>
+        <v>10735</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-98</v>
       </c>
       <c r="Z5" t="n">
-        <v>99.6229538348354</v>
+        <v>98.7217215376127</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>-0.901232297222734</v>
       </c>
     </row>
     <row r="6">
@@ -919,16 +919,16 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>10833</v>
+        <v>10735</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>-98</v>
       </c>
       <c r="Z6" t="n">
-        <v>99.6229538348354</v>
+        <v>98.7217215376127</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>-0.901232297222734</v>
       </c>
     </row>
     <row r="7">
